--- a/Test Cases Final/TC- 4 Retrieve Record.xlsx
+++ b/Test Cases Final/TC- 4 Retrieve Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cror\Desktop\Test Cases\Test Cases Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9779D0EB-152E-4815-92DA-5CFCE2EE715B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB74D4E-574E-490B-8B1E-F103611FAF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>COMMENTS</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Enter '0' to back out</t>
   </si>
   <si>
-    <t>Other tests</t>
-  </si>
-  <si>
     <t>Testing the Retrieve Record screen for unexpected behavior</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>Access Retrieve Record Screen</t>
   </si>
   <si>
     <t>No records in database message should be displayed. User should not be able to continue</t>
@@ -291,9 +285,6 @@
     <t>Should not find record since its not in database. "This is a test1 1 record not found!" displayed</t>
   </si>
   <si>
-    <t>"This is a test1 1 record not found!"</t>
-  </si>
-  <si>
     <t>Record name cannot be empty</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>Enter two valid names in the same input</t>
   </si>
   <si>
-    <t>Entering Record name that belongs to another user</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -442,6 +430,21 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Accessing screen with no records in database</t>
+  </si>
+  <si>
+    <t>Entering Record name that belongs only to another user</t>
+  </si>
+  <si>
+    <t>Result &amp; Other Tests</t>
+  </si>
+  <si>
+    <t>Record Name Prompt</t>
+  </si>
+  <si>
+    <t>This is a test1 1 record not found!</t>
   </si>
 </sst>
 </file>
@@ -736,6 +739,18 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,18 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1140,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,188 +1168,176 @@
   <sheetData>
     <row r="1" spans="2:12" ht="3.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="18">
+      <c r="C5" s="38"/>
+      <c r="D5" s="22">
         <v>44609</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>21</v>
@@ -1355,70 +1346,70 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C14" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="G14" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>21</v>
@@ -1427,22 +1418,22 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>21</v>
@@ -1451,22 +1442,22 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>21</v>
@@ -1475,22 +1466,22 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>21</v>
@@ -1499,22 +1490,22 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>21</v>
@@ -1523,22 +1514,22 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>21</v>
@@ -1547,22 +1538,22 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
+        <v>74</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>21</v>
@@ -1571,22 +1562,22 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>21</v>
@@ -1595,22 +1586,22 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>21</v>
@@ -1619,22 +1610,22 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>21</v>
@@ -1643,22 +1634,22 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>99</v>
+        <v>74</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>21</v>
@@ -1667,22 +1658,22 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>21</v>
@@ -1691,22 +1682,22 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>21</v>
@@ -1715,22 +1706,22 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>111</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>21</v>
@@ -1739,108 +1730,108 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="37" t="s">
+      <c r="H28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="G29" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>99</v>
+        <v>73</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>21</v>
@@ -1849,22 +1840,22 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>21</v>
@@ -1873,70 +1864,70 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>21</v>
@@ -1945,22 +1936,22 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H37" s="6" t="s">
         <v>21</v>
@@ -1969,22 +1960,22 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="6">
-        <v>123</v>
+        <v>74</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>21</v>
@@ -1993,22 +1984,22 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>133</v>
+        <v>74</v>
+      </c>
+      <c r="E39" s="6">
+        <v>123</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>21</v>
@@ -2017,22 +2008,22 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>21</v>
@@ -2041,27 +2032,51 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
